--- a/views/userinfo/_export.xlsx
+++ b/views/userinfo/_export.xlsx
@@ -137,8 +137,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.38775510204082"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9132653061225"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8724489795918"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
